--- a/tabular/4. BTV DB all segs 2016-12-31_data_corrected.xlsx
+++ b/tabular/4. BTV DB all segs 2016-12-31_data_corrected.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7400" yWindow="2380" windowWidth="37000" windowHeight="22360" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="1240" windowWidth="26900" windowHeight="22360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="query_result.csv" sheetId="1" r:id="rId1"/>
@@ -16698,7 +16698,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -16725,6 +16725,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1623">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -18680,9 +18683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4839"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4774" sqref="K4774"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3265" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3285" sqref="I3285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -35825,82 +35828,85 @@
         <v>3362</v>
       </c>
     </row>
-    <row r="3281" spans="1:1">
+    <row r="3281" spans="1:9">
       <c r="A3281" s="2" t="s">
         <v>3363</v>
       </c>
     </row>
-    <row r="3282" spans="1:1">
+    <row r="3282" spans="1:9">
       <c r="A3282" s="2" t="s">
         <v>3364</v>
       </c>
     </row>
-    <row r="3283" spans="1:1">
+    <row r="3283" spans="1:9">
       <c r="A3283" s="2" t="s">
         <v>3365</v>
       </c>
-    </row>
-    <row r="3284" spans="1:1">
+      <c r="I3283" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3284" spans="1:9">
       <c r="A3284" s="2" t="s">
         <v>3366</v>
       </c>
     </row>
-    <row r="3285" spans="1:1">
+    <row r="3285" spans="1:9">
       <c r="A3285" s="2" t="s">
         <v>3367</v>
       </c>
     </row>
-    <row r="3286" spans="1:1">
+    <row r="3286" spans="1:9">
       <c r="A3286" s="2" t="s">
         <v>3368</v>
       </c>
     </row>
-    <row r="3287" spans="1:1">
+    <row r="3287" spans="1:9">
       <c r="A3287" s="2" t="s">
         <v>3369</v>
       </c>
     </row>
-    <row r="3288" spans="1:1">
+    <row r="3288" spans="1:9">
       <c r="A3288" s="2" t="s">
         <v>3370</v>
       </c>
     </row>
-    <row r="3289" spans="1:1">
+    <row r="3289" spans="1:9">
       <c r="A3289" s="2" t="s">
         <v>3371</v>
       </c>
     </row>
-    <row r="3290" spans="1:1">
+    <row r="3290" spans="1:9">
       <c r="A3290" s="2" t="s">
         <v>3372</v>
       </c>
     </row>
-    <row r="3291" spans="1:1">
+    <row r="3291" spans="1:9">
       <c r="A3291" s="2" t="s">
         <v>3373</v>
       </c>
     </row>
-    <row r="3292" spans="1:1">
+    <row r="3292" spans="1:9">
       <c r="A3292" s="2" t="s">
         <v>3374</v>
       </c>
     </row>
-    <row r="3293" spans="1:1">
+    <row r="3293" spans="1:9">
       <c r="A3293" s="2" t="s">
         <v>3375</v>
       </c>
     </row>
-    <row r="3294" spans="1:1">
+    <row r="3294" spans="1:9">
       <c r="A3294" s="2" t="s">
         <v>3376</v>
       </c>
     </row>
-    <row r="3295" spans="1:1">
+    <row r="3295" spans="1:9">
       <c r="A3295" s="2" t="s">
         <v>3377</v>
       </c>
     </row>
-    <row r="3296" spans="1:1">
+    <row r="3296" spans="1:9">
       <c r="A3296" s="2" t="s">
         <v>3378</v>
       </c>
@@ -36068,82 +36074,91 @@
         <v>3411</v>
       </c>
     </row>
-    <row r="3329" spans="1:1">
+    <row r="3329" spans="1:2">
       <c r="A3329" s="2" t="s">
         <v>3412</v>
       </c>
     </row>
-    <row r="3330" spans="1:1">
+    <row r="3330" spans="1:2">
       <c r="A3330" s="2" t="s">
         <v>3413</v>
       </c>
     </row>
-    <row r="3331" spans="1:1">
+    <row r="3331" spans="1:2">
       <c r="A3331" s="2" t="s">
         <v>3414</v>
       </c>
-    </row>
-    <row r="3332" spans="1:1">
+      <c r="B3331" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3332" spans="1:2">
       <c r="A3332" s="2" t="s">
         <v>3415</v>
       </c>
-    </row>
-    <row r="3333" spans="1:1">
+      <c r="B3332" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3333" spans="1:2">
       <c r="A3333" s="2" t="s">
         <v>3416</v>
       </c>
-    </row>
-    <row r="3334" spans="1:1">
+      <c r="B3333" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3334" spans="1:2">
       <c r="A3334" s="2" t="s">
         <v>3417</v>
       </c>
     </row>
-    <row r="3335" spans="1:1">
+    <row r="3335" spans="1:2">
       <c r="A3335" s="2" t="s">
         <v>3418</v>
       </c>
     </row>
-    <row r="3336" spans="1:1">
+    <row r="3336" spans="1:2">
       <c r="A3336" s="2" t="s">
         <v>3419</v>
       </c>
     </row>
-    <row r="3337" spans="1:1">
+    <row r="3337" spans="1:2">
       <c r="A3337" s="2" t="s">
         <v>3420</v>
       </c>
     </row>
-    <row r="3338" spans="1:1">
+    <row r="3338" spans="1:2">
       <c r="A3338" s="2" t="s">
         <v>3421</v>
       </c>
     </row>
-    <row r="3339" spans="1:1">
+    <row r="3339" spans="1:2">
       <c r="A3339" s="2" t="s">
         <v>3422</v>
       </c>
     </row>
-    <row r="3340" spans="1:1">
+    <row r="3340" spans="1:2">
       <c r="A3340" s="2" t="s">
         <v>3423</v>
       </c>
     </row>
-    <row r="3341" spans="1:1">
+    <row r="3341" spans="1:2">
       <c r="A3341" s="2" t="s">
         <v>3424</v>
       </c>
     </row>
-    <row r="3342" spans="1:1">
+    <row r="3342" spans="1:2">
       <c r="A3342" s="2" t="s">
         <v>3425</v>
       </c>
     </row>
-    <row r="3343" spans="1:1">
+    <row r="3343" spans="1:2">
       <c r="A3343" s="2" t="s">
         <v>3426</v>
       </c>
     </row>
-    <row r="3344" spans="1:1">
+    <row r="3344" spans="1:2">
       <c r="A3344" s="2" t="s">
         <v>3427</v>
       </c>
